--- a/Excels/YY语言表.xlsx
+++ b/Excels/YY语言表.xlsx
@@ -38,7 +38,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -67,8 +68,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -143,13 +143,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -167,7 +160,14 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -201,19 +201,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,55 +279,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,103 +369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +406,21 @@
       </top>
       <bottom style="dashed">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,21 +458,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -482,17 +482,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,7 +521,7 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -530,7 +530,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
@@ -539,7 +539,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
@@ -548,13 +548,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
@@ -566,97 +566,97 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,10 +1024,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>#name translation</t>
+          <t>#name lang</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
@@ -1097,49 +1097,70 @@
     <row r="5" ht="13.5" customHeight="1" s="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
+          <t>陈智权</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>uiopsczc</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="5">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>现在不能触发此操作</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="5">
-      <c r="A6" s="0" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>已完成</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>陈智权</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>uiopsczc</t>
-        </is>
-      </c>
-    </row>
     <row r="8" ht="13.5" customHeight="1" s="5">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" customFormat="1" s="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="5">
+      <c r="A10" t="inlineStr">
         <is>
           <t>&lt;color=red&gt;欢迎，
 欢迎，热烈欢迎&lt;/color&gt;</t>
         </is>
       </c>
     </row>
-    <row r="9" customFormat="1" s="1">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" s="5">
-      <c r="A10" s="0" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>dkk("dk
 dk")dkd</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sb</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>usa</t>
         </is>
       </c>
     </row>

--- a/Excels/YY语言表.xlsx
+++ b/Excels/YY语言表.xlsx
@@ -38,9 +38,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -53,7 +67,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -68,7 +82,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -76,7 +97,15 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -85,6 +114,60 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -96,89 +179,6 @@
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -201,187 +201,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +406,30 @@
       </top>
       <bottom style="dashed">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,24 +460,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,32 +507,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -518,10 +518,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -530,133 +530,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1109,36 +1109,36 @@
     <row r="6" ht="13.5" customHeight="1" s="5">
       <c r="A6" t="inlineStr">
         <is>
-          <t>现在不能触发此操作</t>
+          <t>usa</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>&lt;color=red&gt;欢迎，
+欢迎，热烈欢迎&lt;/color&gt;</t>
         </is>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="5">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>china</t>
         </is>
       </c>
     </row>
     <row r="9" customFormat="1" s="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>china</t>
+          <t>1111</t>
         </is>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="5">
       <c r="A10" t="inlineStr">
         <is>
-          <t>&lt;color=red&gt;欢迎，
-欢迎，热烈欢迎&lt;/color&gt;</t>
+          <t>现在不能触发此操作</t>
         </is>
       </c>
     </row>
@@ -1153,14 +1153,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sb</t>
+          <t>已完成</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>usa</t>
+          <t>sb</t>
         </is>
       </c>
     </row>

--- a/Excels/YY语言表.xlsx
+++ b/Excels/YY语言表.xlsx
@@ -13,28 +13,83 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>右手边的没填的话，统一用这一列的内容</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>#name CfgLang</t>
-  </si>
-  <si>
-    <t>#index unique id</t>
-  </si>
-  <si>
-    <t>string</t>
+    <t>defualt</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>isOutput</t>
+  </si>
+  <si>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>CfgLang</t>
+  </si>
+  <si>
+    <t>outputDir</t>
+  </si>
+  <si>
+    <t>uniqueIndexesList</t>
+  </si>
+  <si>
+    <t>multiplyIndexesList</t>
+  </si>
+  <si>
+    <t>headCommentRowIndex</t>
+  </si>
+  <si>
+    <t>headRowIndex</t>
+  </si>
+  <si>
+    <t>dataStartRowIndex</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>english</t>
-  </si>
-  <si>
     <t>英文</t>
+  </si>
+  <si>
+    <t>id(string)</t>
+  </si>
+  <si>
+    <t>english(string)</t>
   </si>
   <si>
     <t>陈智权</t>
@@ -74,12 +129,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,33 +155,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,7 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,16 +206,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,9 +230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,33 +269,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -252,13 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399670400097659"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799676503799554"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,181 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,67 +535,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -570,6 +582,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +641,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -593,7 +653,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
@@ -602,124 +662,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -733,11 +793,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1088,13 +1148,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B27" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="42.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
@@ -1102,7 +1162,7 @@
     <col min="4" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1112,85 +1172,224 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" ht="13.5" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B7" s="3">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" ht="13.5" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B9" s="3">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" ht="13.5" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="1:1">
-      <c r="A13" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" customHeight="1" spans="1:1">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" spans="1:1">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="13.5" customHeight="1" spans="1:1">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="13.5" customHeight="1" spans="1:1">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" ht="13.5" customHeight="1"/>
+    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="33" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>